--- a/TradeBook_Nifty20_Indicator.xlsx
+++ b/TradeBook_Nifty20_Indicator.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c09743ebf26f83b1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{15E5FA7D-1201-41CC-ABF3-2EF2AB0643A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA17297B-7E27-46CA-90BA-35D4FEE18F5C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{929D989A-609D-4F14-BEC9-5F524486D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C050AD64-1E09-4DD9-BEA1-66D41E03B6E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVS-2024" sheetId="1" r:id="rId1"/>
     <sheet name="indicators" sheetId="2" r:id="rId2"/>
+    <sheet name="backtrace" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AVS-2024'!$A$1:$BB$84</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="49">
   <si>
     <t>NSE Code</t>
   </si>
@@ -159,6 +171,27 @@
   <si>
     <t>Bear</t>
   </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>entry_price</t>
+  </si>
+  <si>
+    <t>entry_date</t>
+  </si>
+  <si>
+    <t>exit_price</t>
+  </si>
+  <si>
+    <t>exit_date</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>GRAUWEIL</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +236,11 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -230,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -268,11 +306,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +374,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,11 +648,11 @@
   </sheetPr>
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1153,9 @@
       <c r="AK10" s="13"/>
     </row>
     <row r="11" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3867,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3877,7 +3938,7 @@
     <col min="14" max="14" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -4247,6 +4308,1523 @@
       </c>
       <c r="N9" s="17">
         <v>45590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>509.65</v>
+      </c>
+      <c r="D2" s="17">
+        <v>45400</v>
+      </c>
+      <c r="E2">
+        <v>822.2</v>
+      </c>
+      <c r="F2" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G2">
+        <v>61.326400470911423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>455.45</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45377</v>
+      </c>
+      <c r="E3">
+        <v>499.2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>45397</v>
+      </c>
+      <c r="G3">
+        <v>-9.6058842902623791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>373.1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>45085</v>
+      </c>
+      <c r="E4">
+        <v>454.95</v>
+      </c>
+      <c r="F4" s="17">
+        <v>45372</v>
+      </c>
+      <c r="G4">
+        <v>21.937818279281689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>419.9</v>
+      </c>
+      <c r="D5" s="17">
+        <v>44957</v>
+      </c>
+      <c r="E5">
+        <v>372.2</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45083</v>
+      </c>
+      <c r="G5">
+        <v>11.3598475827578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>692.25</v>
+      </c>
+      <c r="D6" s="17">
+        <v>45659</v>
+      </c>
+      <c r="E6">
+        <v>670.65</v>
+      </c>
+      <c r="F6" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G6">
+        <v>-3.1202600216684759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>601.6</v>
+      </c>
+      <c r="D7" s="17">
+        <v>45638</v>
+      </c>
+      <c r="E7">
+        <v>686.25</v>
+      </c>
+      <c r="F7" s="17">
+        <v>45657</v>
+      </c>
+      <c r="G7">
+        <v>-14.07081117021276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>688.1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>45603</v>
+      </c>
+      <c r="E8">
+        <v>605.75</v>
+      </c>
+      <c r="F8" s="17">
+        <v>45636</v>
+      </c>
+      <c r="G8">
+        <v>-11.967737247493099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>602.79999999999995</v>
+      </c>
+      <c r="D9" s="17">
+        <v>45573</v>
+      </c>
+      <c r="E9">
+        <v>660.7</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45601</v>
+      </c>
+      <c r="G9">
+        <v>-9.6051758460517735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>531.85</v>
+      </c>
+      <c r="D10" s="17">
+        <v>45407</v>
+      </c>
+      <c r="E10">
+        <v>621.15</v>
+      </c>
+      <c r="F10" s="17">
+        <v>45569</v>
+      </c>
+      <c r="G10">
+        <v>16.790448434709031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>456</v>
+      </c>
+      <c r="D11" s="17">
+        <v>45357</v>
+      </c>
+      <c r="E11">
+        <v>519.70000000000005</v>
+      </c>
+      <c r="F11" s="17">
+        <v>45405</v>
+      </c>
+      <c r="G11">
+        <v>-13.96929824561404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>471.7</v>
+      </c>
+      <c r="D12" s="17">
+        <v>45265</v>
+      </c>
+      <c r="E12">
+        <v>481.5</v>
+      </c>
+      <c r="F12" s="17">
+        <v>45355</v>
+      </c>
+      <c r="G12">
+        <v>2.0775916896332438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>384.9</v>
+      </c>
+      <c r="D13" s="17">
+        <v>45230</v>
+      </c>
+      <c r="E13">
+        <v>425.5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>45261</v>
+      </c>
+      <c r="G13">
+        <v>-10.548194336191219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1731.15</v>
+      </c>
+      <c r="D14" s="17">
+        <v>45583</v>
+      </c>
+      <c r="E14">
+        <v>1700</v>
+      </c>
+      <c r="F14" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G14">
+        <v>1.799381913756757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>1875.85</v>
+      </c>
+      <c r="D15" s="17">
+        <v>45541</v>
+      </c>
+      <c r="E15">
+        <v>1746.6</v>
+      </c>
+      <c r="F15" s="17">
+        <v>45581</v>
+      </c>
+      <c r="G15">
+        <v>-6.8902097715702224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>1630</v>
+      </c>
+      <c r="D16" s="17">
+        <v>45510</v>
+      </c>
+      <c r="E16">
+        <v>1741.45</v>
+      </c>
+      <c r="F16" s="17">
+        <v>45539</v>
+      </c>
+      <c r="G16">
+        <v>-6.8374233128834376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1579.5</v>
+      </c>
+      <c r="D17" s="17">
+        <v>45392</v>
+      </c>
+      <c r="E17">
+        <v>1673.4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>45506</v>
+      </c>
+      <c r="G17">
+        <v>5.944919278252617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1516.25</v>
+      </c>
+      <c r="D18" s="17">
+        <v>45320</v>
+      </c>
+      <c r="E18">
+        <v>1626</v>
+      </c>
+      <c r="F18" s="17">
+        <v>45390</v>
+      </c>
+      <c r="G18">
+        <v>-7.2382522671063469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>1566.05</v>
+      </c>
+      <c r="D19" s="17">
+        <v>45296</v>
+      </c>
+      <c r="E19">
+        <v>1493.7</v>
+      </c>
+      <c r="F19" s="17">
+        <v>45315</v>
+      </c>
+      <c r="G19">
+        <v>-4.6199035790683514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>1547.35</v>
+      </c>
+      <c r="D20" s="17">
+        <v>45226</v>
+      </c>
+      <c r="E20">
+        <v>1567.7</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45294</v>
+      </c>
+      <c r="G20">
+        <v>-1.315151710989765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>1542.65</v>
+      </c>
+      <c r="D21" s="17">
+        <v>45117</v>
+      </c>
+      <c r="E21">
+        <v>1548.4</v>
+      </c>
+      <c r="F21" s="17">
+        <v>45224</v>
+      </c>
+      <c r="G21">
+        <v>0.372735228340842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>1836.3</v>
+      </c>
+      <c r="D22" s="17">
+        <v>44987</v>
+      </c>
+      <c r="E22">
+        <v>1535</v>
+      </c>
+      <c r="F22" s="17">
+        <v>45113</v>
+      </c>
+      <c r="G22">
+        <v>16.407994336437401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>2313</v>
+      </c>
+      <c r="D23" s="17">
+        <v>45575</v>
+      </c>
+      <c r="E23">
+        <v>2054.9499999999998</v>
+      </c>
+      <c r="F23" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G23">
+        <v>11.15650670125379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>2511</v>
+      </c>
+      <c r="D24" s="17">
+        <v>45566</v>
+      </c>
+      <c r="E24">
+        <v>2385.8000000000002</v>
+      </c>
+      <c r="F24" s="17">
+        <v>45573</v>
+      </c>
+      <c r="G24">
+        <v>-4.9860613301473444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>2380.6</v>
+      </c>
+      <c r="D25" s="17">
+        <v>45509</v>
+      </c>
+      <c r="E25">
+        <v>2483.3000000000002</v>
+      </c>
+      <c r="F25" s="17">
+        <v>45562</v>
+      </c>
+      <c r="G25">
+        <v>-4.3140384776947096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>2624.4</v>
+      </c>
+      <c r="D26" s="17">
+        <v>45455</v>
+      </c>
+      <c r="E26">
+        <v>2487.9</v>
+      </c>
+      <c r="F26" s="17">
+        <v>45505</v>
+      </c>
+      <c r="G26">
+        <v>-5.2011888431641511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>2499.1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>45450</v>
+      </c>
+      <c r="E27">
+        <v>2543.1</v>
+      </c>
+      <c r="F27" s="17">
+        <v>45453</v>
+      </c>
+      <c r="G27">
+        <v>-1.760633828178144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>2609.25</v>
+      </c>
+      <c r="D28" s="17">
+        <v>45436</v>
+      </c>
+      <c r="E28">
+        <v>2401.6</v>
+      </c>
+      <c r="F28" s="17">
+        <v>45448</v>
+      </c>
+      <c r="G28">
+        <v>-7.9582255437386253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>2403.5500000000002</v>
+      </c>
+      <c r="D29" s="17">
+        <v>45404</v>
+      </c>
+      <c r="E29">
+        <v>2543.35</v>
+      </c>
+      <c r="F29" s="17">
+        <v>45434</v>
+      </c>
+      <c r="G29">
+        <v>-5.816396580058651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>2141.5500000000002</v>
+      </c>
+      <c r="D30" s="17">
+        <v>45267</v>
+      </c>
+      <c r="E30">
+        <v>2412</v>
+      </c>
+      <c r="F30" s="17">
+        <v>45400</v>
+      </c>
+      <c r="G30">
+        <v>12.628703509140569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>1878</v>
+      </c>
+      <c r="D31" s="17">
+        <v>45226</v>
+      </c>
+      <c r="E31">
+        <v>2184.8000000000002</v>
+      </c>
+      <c r="F31" s="17">
+        <v>45265</v>
+      </c>
+      <c r="G31">
+        <v>-16.33652822151226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>1925</v>
+      </c>
+      <c r="D32" s="17">
+        <v>45133</v>
+      </c>
+      <c r="E32">
+        <v>1891.1</v>
+      </c>
+      <c r="F32" s="17">
+        <v>45224</v>
+      </c>
+      <c r="G32">
+        <v>-1.7610389610389661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>1778.65</v>
+      </c>
+      <c r="D33" s="17">
+        <v>45121</v>
+      </c>
+      <c r="E33">
+        <v>1805.5</v>
+      </c>
+      <c r="F33" s="17">
+        <v>45131</v>
+      </c>
+      <c r="G33">
+        <v>-1.5095718663030899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>1851.75</v>
+      </c>
+      <c r="D34" s="17">
+        <v>45084</v>
+      </c>
+      <c r="E34">
+        <v>1788</v>
+      </c>
+      <c r="F34" s="17">
+        <v>45119</v>
+      </c>
+      <c r="G34">
+        <v>-3.4426893479141349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>2464.65</v>
+      </c>
+      <c r="D35" s="17">
+        <v>44935</v>
+      </c>
+      <c r="E35">
+        <v>1810.45</v>
+      </c>
+      <c r="F35" s="17">
+        <v>45082</v>
+      </c>
+      <c r="G35">
+        <v>26.543322581299581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>1453.4</v>
+      </c>
+      <c r="D36" s="17">
+        <v>45545</v>
+      </c>
+      <c r="E36">
+        <v>1199.55</v>
+      </c>
+      <c r="F36" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G36">
+        <v>17.465941929269309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>835.55</v>
+      </c>
+      <c r="D37" s="17">
+        <v>45259</v>
+      </c>
+      <c r="E37">
+        <v>1442.4</v>
+      </c>
+      <c r="F37" s="17">
+        <v>45541</v>
+      </c>
+      <c r="G37">
+        <v>72.62880737238946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>795.55</v>
+      </c>
+      <c r="D38" s="17">
+        <v>45254</v>
+      </c>
+      <c r="E38">
+        <v>795.55</v>
+      </c>
+      <c r="F38" s="17">
+        <v>45254</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>803.6</v>
+      </c>
+      <c r="D39" s="17">
+        <v>45250</v>
+      </c>
+      <c r="E39">
+        <v>791.9</v>
+      </c>
+      <c r="F39" s="17">
+        <v>45252</v>
+      </c>
+      <c r="G39">
+        <v>-1.455948232951723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>770.35</v>
+      </c>
+      <c r="D40" s="17">
+        <v>45225</v>
+      </c>
+      <c r="E40">
+        <v>813.6</v>
+      </c>
+      <c r="F40" s="17">
+        <v>45246</v>
+      </c>
+      <c r="G40">
+        <v>-5.6143311481793976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>681.5</v>
+      </c>
+      <c r="D41" s="17">
+        <v>45048</v>
+      </c>
+      <c r="E41">
+        <v>771.45</v>
+      </c>
+      <c r="F41" s="17">
+        <v>45222</v>
+      </c>
+      <c r="G41">
+        <v>13.19882611885547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>697.4</v>
+      </c>
+      <c r="D42" s="17">
+        <v>45520</v>
+      </c>
+      <c r="E42">
+        <v>520.45000000000005</v>
+      </c>
+      <c r="F42" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G42">
+        <v>25.372813306567249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>642</v>
+      </c>
+      <c r="D43" s="17">
+        <v>45386</v>
+      </c>
+      <c r="E43">
+        <v>689.5</v>
+      </c>
+      <c r="F43" s="17">
+        <v>45517</v>
+      </c>
+      <c r="G43">
+        <v>7.398753894080996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>516.54999999999995</v>
+      </c>
+      <c r="D44" s="17">
+        <v>45378</v>
+      </c>
+      <c r="E44">
+        <v>588.45000000000005</v>
+      </c>
+      <c r="F44" s="17">
+        <v>45384</v>
+      </c>
+      <c r="G44">
+        <v>-13.91927209369859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>231.65</v>
+      </c>
+      <c r="D45" s="17">
+        <v>45049</v>
+      </c>
+      <c r="E45">
+        <v>531.04999999999995</v>
+      </c>
+      <c r="F45" s="17">
+        <v>45373</v>
+      </c>
+      <c r="G45">
+        <v>129.24670839628749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>249.86</v>
+      </c>
+      <c r="D46" s="17">
+        <v>45530</v>
+      </c>
+      <c r="E46">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="F46" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G46">
+        <v>17.705915312575041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>222.96</v>
+      </c>
+      <c r="D47" s="17">
+        <v>45520</v>
+      </c>
+      <c r="E47">
+        <v>228.98</v>
+      </c>
+      <c r="F47" s="17">
+        <v>45526</v>
+      </c>
+      <c r="G47">
+        <v>-2.7000358808754852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>230.5</v>
+      </c>
+      <c r="D48" s="17">
+        <v>45405</v>
+      </c>
+      <c r="E48">
+        <v>225.01</v>
+      </c>
+      <c r="F48" s="17">
+        <v>45517</v>
+      </c>
+      <c r="G48">
+        <v>-2.3817787418655141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>188.95</v>
+      </c>
+      <c r="D49" s="17">
+        <v>45365</v>
+      </c>
+      <c r="E49">
+        <v>215.5</v>
+      </c>
+      <c r="F49" s="17">
+        <v>45401</v>
+      </c>
+      <c r="G49">
+        <v>-14.05133633236307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>201.55</v>
+      </c>
+      <c r="D50" s="17">
+        <v>45362</v>
+      </c>
+      <c r="E50">
+        <v>193.75</v>
+      </c>
+      <c r="F50" s="17">
+        <v>45363</v>
+      </c>
+      <c r="G50">
+        <v>-3.8700074423220099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>213.95</v>
+      </c>
+      <c r="D51" s="17">
+        <v>45252</v>
+      </c>
+      <c r="E51">
+        <v>201.45</v>
+      </c>
+      <c r="F51" s="17">
+        <v>45357</v>
+      </c>
+      <c r="G51">
+        <v>5.8424865622809063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>240.5</v>
+      </c>
+      <c r="D52" s="17">
+        <v>45216</v>
+      </c>
+      <c r="E52">
+        <v>214.65</v>
+      </c>
+      <c r="F52" s="17">
+        <v>45250</v>
+      </c>
+      <c r="G52">
+        <v>-10.74844074844075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>206.25</v>
+      </c>
+      <c r="D53" s="17">
+        <v>45210</v>
+      </c>
+      <c r="E53">
+        <v>245.9</v>
+      </c>
+      <c r="F53" s="17">
+        <v>45212</v>
+      </c>
+      <c r="G53">
+        <v>-19.22424242424243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="D54" s="17">
+        <v>45037</v>
+      </c>
+      <c r="E54">
+        <v>209</v>
+      </c>
+      <c r="F54" s="17">
+        <v>45208</v>
+      </c>
+      <c r="G54">
+        <v>38.594164456233408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>509.65</v>
+      </c>
+      <c r="D55" s="17">
+        <v>45400</v>
+      </c>
+      <c r="E55">
+        <v>822.2</v>
+      </c>
+      <c r="F55" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G55">
+        <v>61.326400470911423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56">
+        <v>455.45</v>
+      </c>
+      <c r="D56" s="17">
+        <v>45377</v>
+      </c>
+      <c r="E56">
+        <v>499.2</v>
+      </c>
+      <c r="F56" s="17">
+        <v>45397</v>
+      </c>
+      <c r="G56">
+        <v>-9.6058842902623791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>373.1</v>
+      </c>
+      <c r="D57" s="17">
+        <v>45085</v>
+      </c>
+      <c r="E57">
+        <v>454.95</v>
+      </c>
+      <c r="F57" s="17">
+        <v>45372</v>
+      </c>
+      <c r="G57">
+        <v>21.937818279281689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>419.9</v>
+      </c>
+      <c r="D58" s="17">
+        <v>44957</v>
+      </c>
+      <c r="E58">
+        <v>372.2</v>
+      </c>
+      <c r="F58" s="17">
+        <v>45083</v>
+      </c>
+      <c r="G58">
+        <v>11.3598475827578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="D59" s="17">
+        <v>45593</v>
+      </c>
+      <c r="E59">
+        <v>280.75</v>
+      </c>
+      <c r="F59" s="17">
+        <v>45660</v>
+      </c>
+      <c r="G59">
+        <v>8.071381794368035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>233.95</v>
+      </c>
+      <c r="D60" s="17">
+        <v>45394</v>
+      </c>
+      <c r="E60">
+        <v>308</v>
+      </c>
+      <c r="F60" s="17">
+        <v>45589</v>
+      </c>
+      <c r="G60">
+        <v>31.652062406497119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>229.75</v>
+      </c>
+      <c r="D61" s="17">
+        <v>45352</v>
+      </c>
+      <c r="E61">
+        <v>237.3</v>
+      </c>
+      <c r="F61" s="17">
+        <v>45391</v>
+      </c>
+      <c r="G61">
+        <v>-3.286180631120788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>226.15</v>
+      </c>
+      <c r="D62" s="17">
+        <v>45259</v>
+      </c>
+      <c r="E62">
+        <v>230.9</v>
+      </c>
+      <c r="F62" s="17">
+        <v>45350</v>
+      </c>
+      <c r="G62">
+        <v>2.1003758567322568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>215.1</v>
+      </c>
+      <c r="D63" s="17">
+        <v>45232</v>
+      </c>
+      <c r="E63">
+        <v>228.3</v>
+      </c>
+      <c r="F63" s="17">
+        <v>45254</v>
+      </c>
+      <c r="G63">
+        <v>-6.1366806136680694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>218</v>
+      </c>
+      <c r="D64" s="17">
+        <v>45118</v>
+      </c>
+      <c r="E64">
+        <v>214.75</v>
+      </c>
+      <c r="F64" s="17">
+        <v>45230</v>
+      </c>
+      <c r="G64">
+        <v>-1.490825688073395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="D65" s="17">
+        <v>44887</v>
+      </c>
+      <c r="E65">
+        <v>213.45</v>
+      </c>
+      <c r="F65" s="17">
+        <v>45114</v>
+      </c>
+      <c r="G65">
+        <v>31.000484887667699</v>
       </c>
     </row>
   </sheetData>
